--- a/InputData/ccs/CC/CCS Calculations.xlsx
+++ b/InputData/ccs/CC/CCS Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ccs\CC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A143292D-6B98-4E21-8DC8-B7F504BB10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAC8057-3D10-459B-A73B-36B6485E5AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="98">
   <si>
     <t>Source:</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Energy Use per Ton Sequestered (BTU/gram CO2e)</t>
+  </si>
+  <si>
+    <t>*We use ethanol production as a proxy for the chemicals industry, as we expect ammonia production to be decarbonized via</t>
+  </si>
+  <si>
+    <t>hydrogen electrolysis in our BAU case.</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -900,8 +906,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,15 +957,15 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A2,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A2,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -988,15 +994,15 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A3,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A3,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1025,15 +1031,15 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A4,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A4,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1062,15 +1068,15 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A5,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A5,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1099,15 +1105,15 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A6,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A6,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1136,15 +1142,15 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A7,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A7,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1173,15 +1179,15 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A8,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A8,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1210,15 +1216,15 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A9,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A9,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1247,15 +1253,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>B9</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C10">
+        <f t="shared" ref="C10:D10" si="0">C9</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f t="shared" si="0"/>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1284,15 +1291,15 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A11,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>3.6323360324901186E-7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A11,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1321,15 +1328,15 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A12,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A12,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1358,15 +1365,15 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A13,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A13,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1395,15 +1402,15 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A14,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A14,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.7187140690415008E-6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1432,15 +1439,15 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A15,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A15,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.7187140690415008E-6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1469,15 +1476,15 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A16,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A16,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1506,15 +1513,15 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A17,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A17,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1543,15 +1550,15 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A18,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A18,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1580,15 +1587,15 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A19,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A19,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1617,15 +1624,15 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A20,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A20,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1654,15 +1661,15 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A21,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A21,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,15 +1698,15 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A22,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A22,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1728,15 +1735,15 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A23,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A23,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1765,15 +1772,15 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A24,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>3.0269466937417661E-7</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A24,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1802,15 +1809,15 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A25,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A25,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1839,15 +1846,15 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A26,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.8431147099868251E-7</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A26,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.8700614037285907E-6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1883,7 +1890,7 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1912,7 +1919,7 @@
         <v>85</v>
       </c>
       <c r="B2">
-        <f>Data!E24/10^12</f>
+        <f>Data!E25/10^12</f>
         <v>6.1418537999999999E-7</v>
       </c>
     </row>
@@ -1929,7 +1936,7 @@
         <v>87</v>
       </c>
       <c r="B4">
-        <f>Data!E25/10^12</f>
+        <f>Data!E26/10^12</f>
         <v>8.7009595499999985E-6</v>
       </c>
     </row>
@@ -1997,10 +2004,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA25B772-A559-4F07-971A-AC3B6FFE9BE6}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2479,185 +2486,213 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B22" t="str">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" t="str">
         <f>B3</f>
         <v>Natural Gas Processing</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" ref="C22:I22" si="7">C3</f>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:I23" si="7">C3</f>
         <v>Ethanol Production</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="7"/>
         <v>Ammonia Production</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="7"/>
         <v>Hydrogen Production</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="7"/>
         <v>Cement Plant</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="7"/>
         <v>Refinery Fluidized Catalytic Converter</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="7"/>
         <v>Iron and Steel Plant</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="7"/>
         <v>Industrial Furnace</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f>AVERAGE(B5,B15)*10^6/B14*(1+B19)</f>
         <v>96.37385234743823</v>
       </c>
-      <c r="C23">
-        <f t="shared" ref="C23:I23" si="8">AVERAGE(C5,C15)*10^6/C14*(1+C19)</f>
+      <c r="C24">
+        <f t="shared" ref="C24:I24" si="8">AVERAGE(C5,C15)*10^6/C14*(1+C19)</f>
         <v>90.318959616700909</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <f t="shared" si="8"/>
         <v>86.245524017467261</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="8"/>
         <v>237.598625</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="8"/>
         <v>241.26666666666668</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <f t="shared" si="8"/>
         <v>498.34125</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <f t="shared" si="8"/>
         <v>177.6637793116993</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <f t="shared" si="8"/>
         <v>571.58457392593505</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f>AVERAGE(B6,B16)*About!$A$30</f>
         <v>341214.10000000003</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f>AVERAGE(C6,C16)*About!$A$30</f>
         <v>409456.92</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f>AVERAGE(D6,D16)*About!$A$30</f>
         <v>341214.10000000003</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f>AVERAGE(E6,E16)*About!$A$30</f>
         <v>614185.38</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f>AVERAGE(F6,F16)*About!$A$30</f>
         <v>545942.56000000006</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <f>AVERAGE(G6,G16)*About!$A$30</f>
         <v>477699.74000000005</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <f>AVERAGE(H6,H16)*About!$A$30</f>
         <v>545942.56000000006</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <f>AVERAGE(I6,I16)*About!$A$30</f>
         <v>545942.56000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <f>AVERAGE(B7,B17)*About!$A$30</f>
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f>AVERAGE(C7,C17)*About!$A$30</f>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f>AVERAGE(D7,D17)*About!$A$30</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f>AVERAGE(E7,E17)*About!$A$30</f>
         <v>8700959.5499999989</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f>AVERAGE(F7,F17)*About!$A$30</f>
         <v>8700959.5499999989</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <f>AVERAGE(G7,G17)*About!$A$30</f>
         <v>8700959.5499999989</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <f>AVERAGE(H7,H17)*About!$A$30</f>
         <v>8700959.5499999989</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <f>AVERAGE(I7,I17)*About!$A$30</f>
         <v>8871566.5999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B26">
-        <f>AVERAGE(B8,B18)*B23</f>
+      <c r="B27">
+        <f>AVERAGE(B8,B18)*B24</f>
         <v>5.7824311408462936</v>
       </c>
-      <c r="C26">
-        <f t="shared" ref="C26:I26" si="9">AVERAGE(C8,C18)*C23</f>
+      <c r="C27">
+        <f t="shared" ref="C27:I27" si="9">AVERAGE(C8,C18)*C24</f>
         <v>6.3223271731690645</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f t="shared" si="9"/>
         <v>4.3122762008733631</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="9"/>
         <v>11.87993125</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f t="shared" si="9"/>
         <v>16.888666666666669</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <f t="shared" si="9"/>
         <v>19.93365</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <f t="shared" si="9"/>
         <v>8.8831889655849654</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <f t="shared" si="9"/>
         <v>22.863382957037402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2708,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2692,7 +2727,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2701,7 +2736,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2710,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2719,7 +2754,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2728,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2737,7 +2772,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2746,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2755,7 +2790,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2764,8 +2799,8 @@
         <v>17</v>
       </c>
       <c r="B10" s="3">
-        <f>Data!$I$23*About!$A$28</f>
-        <v>507.0587751909739</v>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A10,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
+        <v>442.08384092059458</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2773,7 +2808,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2782,7 +2817,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2791,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2800,7 +2835,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2809,7 +2844,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2818,7 +2853,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2827,7 +2862,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2836,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2845,7 +2880,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2854,7 +2889,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2863,7 +2898,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2872,7 +2907,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2881,7 +2916,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2890,7 +2925,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2899,7 +2934,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2908,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2925,7 +2960,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2944,7 +2979,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A2,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2953,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A3,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2962,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A4,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2971,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A5,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2980,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A6,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2989,7 +3024,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A7,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -2998,7 +3033,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A8,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3007,7 +3042,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A9,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3016,7 +3051,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>Data!$I$24*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3025,8 +3060,8 @@
         <v>18</v>
       </c>
       <c r="B11" s="3">
-        <f>Data!$I$23*About!$A$28</f>
-        <v>507.0587751909739</v>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A11,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
+        <v>80.122912914199276</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3034,7 +3069,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A12,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3043,7 +3078,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A13,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3052,8 +3087,8 @@
         <v>21</v>
       </c>
       <c r="B14" s="3">
-        <f>Data!$I$23*About!$A$28</f>
-        <v>507.0587751909739</v>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A14,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
+        <v>214.0302346757544</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3061,8 +3096,8 @@
         <v>22</v>
       </c>
       <c r="B15" s="3">
-        <f>Data!$I$23*About!$A$28</f>
-        <v>507.0587751909739</v>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A15,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
+        <v>157.60743456534033</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3070,7 +3105,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A16,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3079,7 +3114,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A17,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3088,7 +3123,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A18,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3097,7 +3132,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A19,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3106,7 +3141,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A20,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3115,7 +3150,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A21,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3124,7 +3159,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A22,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3133,7 +3168,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A23,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3142,8 +3177,8 @@
         <v>31</v>
       </c>
       <c r="B24" s="3">
-        <f>Data!$I$23*About!$A$28</f>
-        <v>507.0587751909739</v>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A24,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
+        <v>85.494272870387022</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3151,7 +3186,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A25,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3160,7 +3195,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="3">
-        <f>Data!$I$23*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$24:$24,MATCH('CC-CCoIPCE'!A26,Data!$22:$22,0)),Data!$I$24)*About!$A$28</f>
         <v>507.0587751909739</v>
       </c>
     </row>
@@ -3196,7 +3231,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="3">
-        <f>Data!E23*About!$A$28</f>
+        <f>Data!E24*About!$A$28</f>
         <v>210.77627576977025</v>
       </c>
     </row>
@@ -3285,7 +3320,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3304,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3313,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3322,7 +3357,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3331,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3340,7 +3375,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3349,7 +3384,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3358,7 +3393,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3367,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3376,8 +3411,8 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <f>Data!$I$26*About!$A$28</f>
-        <v>20.282351007638955</v>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A10,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
+        <v>17.683353636823785</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3385,7 +3420,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3394,7 +3429,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3403,7 +3438,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3412,7 +3447,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3421,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3430,7 +3465,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3439,7 +3474,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3448,7 +3483,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3457,7 +3492,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3466,7 +3501,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3475,7 +3510,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3484,7 +3519,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3493,7 +3528,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3502,7 +3537,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3511,7 +3546,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3520,7 +3555,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3537,7 +3572,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3556,7 +3591,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A2,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3565,7 +3600,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A3,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3574,7 +3609,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A4,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3583,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A5,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3592,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A6,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3601,7 +3636,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A7,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3610,7 +3645,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A8,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3619,7 +3654,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A9,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3628,7 +3663,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>Data!$I$27*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3637,8 +3672,8 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <f>Data!$I$26*About!$A$28</f>
-        <v>20.282351007638955</v>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A11,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
+        <v>5.6086039039939504</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3646,7 +3681,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A12,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3655,7 +3690,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A13,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3664,8 +3699,8 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <f>Data!$I$26*About!$A$28</f>
-        <v>20.282351007638955</v>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A14,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
+        <v>14.98211642730281</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3673,8 +3708,8 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <f>Data!$I$26*About!$A$28</f>
-        <v>20.282351007638955</v>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A15,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
+        <v>7.8803717282670158</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3682,7 +3717,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A16,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3691,7 +3726,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A17,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3700,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A18,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3709,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A19,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3718,7 +3753,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A20,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3727,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A21,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3736,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A22,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3745,7 +3780,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A23,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3754,8 +3789,8 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <f>Data!$I$26*About!$A$28</f>
-        <v>20.282351007638955</v>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A24,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
+        <v>5.1296563722232209</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3763,7 +3798,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A25,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3772,7 +3807,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <f>Data!$I$26*About!$A$28</f>
+        <f>IFERROR(INDEX(Data!$27:$27,MATCH('CC-CCoIPCE'!A26,Data!$22:$22,0)),Data!$I$27)*About!$A$28</f>
         <v>20.282351007638955</v>
       </c>
     </row>
@@ -3808,7 +3843,7 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <f>Data!E26*About!$A$28</f>
+        <f>Data!E27*About!$A$28</f>
         <v>10.538813788488513</v>
       </c>
     </row>
@@ -3824,8 +3859,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3875,14 +3910,14 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E2">
@@ -3912,14 +3947,14 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E3">
@@ -3949,14 +3984,14 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E4">
@@ -3986,14 +4021,14 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E5">
@@ -4023,14 +4058,14 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E6">
@@ -4060,14 +4095,14 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E7">
@@ -4097,14 +4132,14 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E8">
@@ -4134,14 +4169,14 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E9">
@@ -4171,15 +4206,15 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <f>Data!$I$24/10^12</f>
-        <v>5.4594256000000005E-7</v>
+        <f>IFERROR(INDEX(Data!$25:$25,MATCH('CC-CCoIPCE'!A10,Data!$22:$22,0)),Data!$I$25)*About!$A$28/10^12</f>
+        <v>4.2377253712384721E-7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <f>Data!$I$25/10^12</f>
-        <v>8.8715665999999999E-6</v>
+        <f>IFERROR(INDEX(Data!$26:$26,MATCH('CC-CCoIPCE'!A10,Data!$22:$22,0)),Data!$I$26)*About!$A$28/10^12</f>
+        <v>7.7187140690415008E-6</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4208,14 +4243,14 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E11">
@@ -4245,14 +4280,14 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E12">
@@ -4282,14 +4317,14 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E13">
@@ -4319,14 +4354,14 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E14">
@@ -4356,14 +4391,14 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E15">
@@ -4393,14 +4428,14 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E16">
@@ -4430,14 +4465,14 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E17">
@@ -4467,14 +4502,14 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E18">
@@ -4504,14 +4539,14 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E19">
@@ -4541,14 +4576,14 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E20">
@@ -4578,14 +4613,14 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E21">
@@ -4615,14 +4650,14 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E22">
@@ -4652,14 +4687,14 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E23">
@@ -4689,14 +4724,14 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E24">
@@ -4726,14 +4761,14 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E25">
@@ -4763,14 +4798,14 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <f>Data!$I$24/10^12</f>
+        <f>Data!$I$25/10^12</f>
         <v>5.4594256000000005E-7</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <f>Data!$I$25/10^12</f>
+        <f>Data!$I$26/10^12</f>
         <v>8.8715665999999999E-6</v>
       </c>
       <c r="E26">
